--- a/02_MasterWifoMannheim/99_Backup/Course95.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course95.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2B59D2BFD32051265F592811595C88705413FCDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622D4E81-11C3-478E-9625-73061EB8F935}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3005A715B7A3B115925F8F4606DFD79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F622451-1CB1-40F0-AF3E-FA70097FB7FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,12 @@
     <t>Prerequisites</t>
   </si>
   <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>IS 512| IS 615</t>
+  </si>
+  <si>
     <t>Obligatory registration</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Fall semester</t>
+    <t>FWS</t>
   </si>
   <si>
     <t>Language</t>
@@ -109,13 +115,7 @@
     <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., and M.Sc. Bus. Inf.</t>
   </si>
   <si>
-    <t>IS 512| IS 615</t>
-  </si>
-  <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>IS 615, 512</t>
+    <t>IT Management (ITM)</t>
   </si>
 </sst>
 </file>
@@ -172,13 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,13 +482,10 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="169" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -505,23 +499,23 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -529,108 +523,106 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
